--- a/build/src/download/菜品导入模板.xlsx
+++ b/build/src/download/菜品导入模板.xlsx
@@ -279,7 +279,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>8</t>
+      <t>12</t>
     </r>
     <r>
       <rPr>
@@ -298,7 +298,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>16</t>
+      <t>24</t>
     </r>
     <r>
       <rPr>
@@ -328,7 +328,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>、菜品编号不允许重复；菜品名称允许重复，但是相同菜品规格的不允许重复，菜品编号可以填写，系统自动分配，商家编号支持</t>
+      <t>、菜品编号不允许重复；菜品名称允许重复，但是相同名称菜品的规格不允许重复，菜品编号如果不填写，系统自动分配，菜品编号支持</t>
     </r>
     <r>
       <rPr>
@@ -356,7 +356,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>15</t>
+      <t>8</t>
     </r>
     <r>
       <rPr>
@@ -386,7 +386,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t xml:space="preserve">、菜品类别和出品部门不允许为空，如果菜品名称或出品部门是新分类（商户中心不存在），则会创建菜品类别和出品部门。
+      <t xml:space="preserve">、菜品类别和出品部门不允许为空，如果菜品类别或出品部门是新分类（商户中心不存在），则会创建菜品类别和出品部门。
 </t>
     </r>
     <r>
@@ -742,7 +742,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -817,12 +817,6 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="16"/>
@@ -930,7 +924,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -940,9 +934,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1252,7 +1243,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+      <selection pane="bottomLeft" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1275,35 +1266,35 @@
       <c r="A1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" ht="33" x14ac:dyDescent="0.5">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="9"/>
-      <c r="M2" s="9"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
     </row>
     <row r="3" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -1415,21 +1406,21 @@
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" ht="33" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
     </row>
     <row r="7" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
